--- a/test-code-generator/Evaluation/QuantitativeEvaluation/11/UC2.2_TC1.xlsx
+++ b/test-code-generator/Evaluation/QuantitativeEvaluation/11/UC2.2_TC1.xlsx
@@ -596,7 +596,7 @@
         </is>
       </c>
       <c r="B11" s="3" t="n">
-        <v>0.1699060493429148</v>
+        <v>0.1285092644562447</v>
       </c>
       <c r="C11" s="3" t="n"/>
       <c r="D11" s="7" t="inlineStr">
@@ -612,11 +612,11 @@
         </is>
       </c>
       <c r="B12" s="3" t="n">
-        <v>0.3267083384685832</v>
+        <v>0.3246016732155307</v>
       </c>
       <c r="C12" s="3" t="inlineStr">
         <is>
-          <t>{'codebleu': 0.32670833846858316, 'ngram_match_score': 0.16990604934291478, 'weighted_ngram_match_score': 0.23760298020709347, 'syntax_match_score': 0.5743243243243243, 'dataflow_match_score': 0.325}</t>
+          <t>{'codebleu': 0.3246016732155307, 'ngram_match_score': 0.1285092644562447, 'weighted_ngram_match_score': 0.1830731040815539, 'syntax_match_score': 0.5743243243243243, 'dataflow_match_score': 0.4125}</t>
         </is>
       </c>
       <c r="D12" s="7" t="inlineStr">
@@ -632,7 +632,7 @@
         </is>
       </c>
       <c r="B13" s="3" t="n">
-        <v>0.7677125308987536</v>
+        <v>0.7479183025017402</v>
       </c>
       <c r="C13" s="3" t="n"/>
       <c r="D13" s="3" t="inlineStr">
